--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_20-10.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_20-10.xlsx
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>9:1</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:4</t>
   </si>
   <si>
     <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
@@ -2116,17 +2122,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2134,7 +2140,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2142,13 +2148,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -2160,7 +2166,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2168,17 +2174,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>55.670000000000002</v>
+        <v>69</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2186,7 +2192,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2194,17 +2200,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>44</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2212,7 +2218,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2220,13 +2226,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2246,13 +2252,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2264,7 +2270,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2272,17 +2278,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2290,7 +2296,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2298,17 +2304,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>15.300000000000001</v>
+        <v>56</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2316,7 +2322,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2330,7 +2336,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>65</v>
+        <v>15.300000000000001</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2342,7 +2348,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2350,13 +2356,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>85.560000000000002</v>
+        <v>65</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2368,7 +2374,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2376,13 +2382,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>39</v>
+        <v>85.560000000000002</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2394,7 +2400,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2402,13 +2408,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>50.960000000000001</v>
+        <v>39</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2420,7 +2426,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2428,13 +2434,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>65</v>
+        <v>50.960000000000001</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2446,7 +2452,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2454,17 +2460,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2480,17 +2486,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2498,7 +2504,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2506,17 +2512,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2532,17 +2538,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2550,7 +2556,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2558,17 +2564,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>27.329999999999998</v>
+        <v>75</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2576,7 +2582,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2584,13 +2590,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>0</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2602,7 +2608,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2610,17 +2616,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>277.5</v>
+        <v>0</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2628,7 +2634,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2636,13 +2642,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>31</v>
+        <v>277.5</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2654,7 +2660,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2662,13 +2668,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2680,7 +2686,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2688,13 +2694,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>31</v>
+        <v>247</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2706,7 +2712,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2714,13 +2720,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2732,7 +2738,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2740,13 +2746,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2758,7 +2764,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2766,17 +2772,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2792,7 +2798,7 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
@@ -2802,7 +2808,7 @@
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2810,7 +2816,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2818,17 +2824,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2836,7 +2842,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2844,13 +2850,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2862,7 +2868,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2870,17 +2876,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2896,17 +2902,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2914,7 +2920,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2922,17 +2928,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2940,7 +2946,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2948,17 +2954,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2966,7 +2972,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2974,17 +2980,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3000,17 +3006,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -3018,7 +3024,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -3026,17 +3032,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3044,7 +3050,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -3052,17 +3058,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3070,7 +3076,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3078,13 +3084,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -3096,7 +3102,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3104,17 +3110,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>56.399999999999999</v>
+        <v>30</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3130,13 +3136,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>23</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3148,7 +3154,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3156,17 +3162,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3174,7 +3180,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3182,13 +3188,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3200,7 +3206,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3208,13 +3214,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>65.75</v>
+        <v>103</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3226,7 +3232,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3234,17 +3240,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>15</v>
+        <v>65.75</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3252,7 +3258,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3260,17 +3266,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3278,7 +3284,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3292,7 +3298,7 @@
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>249.47999999999999</v>
+        <v>140</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3304,7 +3310,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3312,17 +3318,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>140</v>
+        <v>249.47999999999999</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3338,17 +3344,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3356,7 +3362,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3364,17 +3370,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3382,7 +3388,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3390,17 +3396,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3408,7 +3414,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3416,17 +3422,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3434,7 +3440,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3442,17 +3448,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3460,7 +3466,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3474,7 +3480,7 @@
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3486,7 +3492,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3494,17 +3500,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3512,7 +3518,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3520,17 +3526,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3538,7 +3544,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3546,17 +3552,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3564,7 +3570,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3572,17 +3578,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>9.9499999999999993</v>
+        <v>35</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3598,17 +3604,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>34</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3616,7 +3622,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3630,11 +3636,11 @@
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>224</v>
+        <v>34</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3642,7 +3648,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3650,17 +3656,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3668,7 +3674,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3676,17 +3682,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3694,7 +3700,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3702,13 +3708,13 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>58.200000000000003</v>
+        <v>25</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
@@ -3728,13 +3734,13 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>10</v>
+        <v>58.200000000000003</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
@@ -3746,7 +3752,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3754,17 +3760,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>145</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3772,7 +3778,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3780,17 +3786,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>124</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3812,11 +3818,11 @@
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
-        <v>19</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3832,13 +3838,13 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
@@ -3850,7 +3856,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3858,13 +3864,13 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
@@ -3884,13 +3890,13 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
@@ -3902,7 +3908,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3910,13 +3916,13 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
@@ -3928,7 +3934,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3936,13 +3942,13 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
@@ -3954,7 +3960,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3962,13 +3968,13 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
@@ -3994,7 +4000,7 @@
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>9.5</v>
+        <v>20</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
@@ -4014,13 +4020,13 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>35</v>
+        <v>9.5</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
@@ -4032,7 +4038,7 @@
         <v>114</v>
       </c>
       <c t="s" r="B117" s="7">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -4040,13 +4046,13 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>19.199999999999999</v>
+        <v>35</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
@@ -4058,7 +4064,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4066,13 +4072,13 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>20</v>
+        <v>19.199999999999999</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
@@ -4084,7 +4090,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4092,13 +4098,13 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
@@ -4110,7 +4116,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4118,13 +4124,13 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="M120" s="9"/>
       <c t="s" r="N120" s="7">
@@ -4136,7 +4142,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4144,13 +4150,13 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M121" s="9"/>
       <c t="s" r="N121" s="7">
@@ -4162,7 +4168,7 @@
         <v>119</v>
       </c>
       <c t="s" r="B122" s="7">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -4170,13 +4176,13 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M122" s="9"/>
       <c t="s" r="N122" s="7">
@@ -4184,37 +4190,63 @@
       </c>
     </row>
     <row r="123" ht="25.5" customHeight="1">
-      <c r="K123" s="10">
-        <v>7644.1000000000004</v>
-      </c>
-      <c r="L123" s="10"/>
-      <c r="M123" s="10"/>
-      <c r="N123" s="10"/>
-    </row>
-    <row r="124" ht="17.25" customHeight="1">
-      <c t="s" r="A124" s="11">
-        <v>167</v>
-      </c>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="11"/>
-      <c r="E124" s="11"/>
-      <c t="s" r="F124" s="12">
+      <c r="A123" s="6">
+        <v>120</v>
+      </c>
+      <c t="s" r="B123" s="7">
         <v>168</v>
       </c>
-      <c r="G124" s="12"/>
-      <c r="H124" s="13"/>
-      <c t="s" r="I124" s="14">
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c t="s" r="H123" s="8">
+        <v>67</v>
+      </c>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="8"/>
+      <c r="L123" s="9">
+        <v>30</v>
+      </c>
+      <c r="M123" s="9"/>
+      <c t="s" r="N123" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="K124" s="10">
+        <v>7648.1000000000004</v>
+      </c>
+      <c r="L124" s="10"/>
+      <c r="M124" s="10"/>
+      <c r="N124" s="10"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="11">
         <v>169</v>
       </c>
-      <c r="J124" s="14"/>
-      <c r="K124" s="14"/>
-      <c r="L124" s="14"/>
-      <c r="M124" s="14"/>
-      <c r="N124" s="14"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c t="s" r="F125" s="12">
+        <v>170</v>
+      </c>
+      <c r="G125" s="12"/>
+      <c r="H125" s="13"/>
+      <c t="s" r="I125" s="14">
+        <v>171</v>
+      </c>
+      <c r="J125" s="14"/>
+      <c r="K125" s="14"/>
+      <c r="L125" s="14"/>
+      <c r="M125" s="14"/>
+      <c r="N125" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="368">
+  <mergeCells count="371">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4579,10 +4611,13 @@
     <mergeCell ref="B122:G122"/>
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
-    <mergeCell ref="K123:N123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="I124:N124"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="K124:N124"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="I125:N125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
